--- a/biology/Zoologie/Cephalocarida/Cephalocarida.xlsx
+++ b/biology/Zoologie/Cephalocarida/Cephalocarida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cephalocarides (Cephalocarida) sont une classe de crustacés. Elle comprend seulement 12 espèces d'animaux proches des crevettes benthiques, qui font toutes partie du même ordre (Brachypoda) et de la même famille, les Hutchinsoniellidae. Ils ont été découverts en 1955 et sont communément appelés « crevettes en sabot de cheval ». Bien que l'on n'ait pas de fossiles connus de Céphalocarides, la plupart des spécialistes pensent que ce sont des crustacés primitifs.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anatomie des Céphalocarides est relativement simple, comparée à celle des Malacostracés. Leur corps, petit (2 à 3,7 mm de long) et allongé, comprend une tête, un thorax de 8 segments avec des appendices biramés et un abdomen de 11 segments qui porte un telson mais pas d'appendices. La seconde paire de maxilles ressemble aux appendices du thorax. Ils n'ont pas d'yeux.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre des Céphalocarides depuis la zone intertidale jusqu'à 1 500 m de fond, et dans tous les types de sédiments.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des taxons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 février 2016)[2] et ITIS      (16 février 2016)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 février 2016) et ITIS      (16 février 2016) :
 Ordre Brachypoda Birshteyn, 1960
 Famille Hutchinsoniellidae Sanders, 1955
 genre Chiltoniella Knox &amp; Fenwick, 1977
